--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -643,27 +643,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 33217-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 33217-2020.xlsx", "A 33217-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 33217-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 33217-2020.png", "A 33217-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 33217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 33217-2020.docx", "A 33217-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 33217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 33217-2020.docx", "A 33217-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 33217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 33217-2020.docx", "A 33217-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 33217-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 33217-2020.docx", "A 33217-2020")</f>
         <v/>
       </c>
     </row>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -748,27 +748,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 12071-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 12071-2023.xlsx", "A 12071-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 12071-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 12071-2023.png", "A 12071-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 12071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 12071-2023.docx", "A 12071-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 12071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 12071-2023.docx", "A 12071-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 12071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 12071-2023.docx", "A 12071-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 12071-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 12071-2023.docx", "A 12071-2023")</f>
         <v/>
       </c>
     </row>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,27 +848,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 26954-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 26954-2022.xlsx", "A 26954-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 26954-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 26954-2022.png", "A 26954-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 26954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 26954-2022.docx", "A 26954-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 26954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 26954-2022.docx", "A 26954-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 26954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 26954-2022.docx", "A 26954-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 26954-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 26954-2022.docx", "A 26954-2022")</f>
         <v/>
       </c>
     </row>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,27 +941,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 59192-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 59192-2021.xlsx", "A 59192-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 59192-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 59192-2021.png", "A 59192-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 59192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 59192-2021.docx", "A 59192-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 59192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 59192-2021.docx", "A 59192-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 59192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 59192-2021.docx", "A 59192-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 59192-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 59192-2021.docx", "A 59192-2021")</f>
         <v/>
       </c>
     </row>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,27 +1038,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 62068-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 62068-2019.xlsx", "A 62068-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 62068-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 62068-2019.png", "A 62068-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 62068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 62068-2019.docx", "A 62068-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 62068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 62068-2019.docx", "A 62068-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 62068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 62068-2019.docx", "A 62068-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 62068-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 62068-2019.docx", "A 62068-2019")</f>
         <v/>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1135,27 +1135,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 60734-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 60734-2020.xlsx", "A 60734-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 60734-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 60734-2020.png", "A 60734-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 60734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 60734-2020.docx", "A 60734-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 60734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 60734-2020.docx", "A 60734-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 60734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 60734-2020.docx", "A 60734-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 60734-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 60734-2020.docx", "A 60734-2020")</f>
         <v/>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,27 +1225,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 59199-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 59199-2021.xlsx", "A 59199-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 59199-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 59199-2021.png", "A 59199-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 59199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 59199-2021.docx", "A 59199-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 59199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 59199-2021.docx", "A 59199-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 59199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 59199-2021.docx", "A 59199-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 59199-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 59199-2021.docx", "A 59199-2021")</f>
         <v/>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,27 +1320,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 25229-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 25229-2023.xlsx", "A 25229-2023")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 25229-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 25229-2023.png", "A 25229-2023")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 25229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 25229-2023.docx", "A 25229-2023")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 25229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 25229-2023.docx", "A 25229-2023")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 25229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 25229-2023.docx", "A 25229-2023")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 25229-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 25229-2023.docx", "A 25229-2023")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1414,27 +1414,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 47035-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 47035-2022.xlsx", "A 47035-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 47035-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 47035-2022.png", "A 47035-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 47035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 47035-2022.docx", "A 47035-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 47035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 47035-2022.docx", "A 47035-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 47035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 47035-2022.docx", "A 47035-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 47035-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 47035-2022.docx", "A 47035-2022")</f>
         <v/>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,27 +1507,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 61660-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 61660-2018.xlsx", "A 61660-2018")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 61660-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 61660-2018.png", "A 61660-2018")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 61660-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 61660-2018.docx", "A 61660-2018")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 61660-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 61660-2018.docx", "A 61660-2018")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 61660-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 61660-2018.docx", "A 61660-2018")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 61660-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 61660-2018.docx", "A 61660-2018")</f>
         <v/>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,27 +1600,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 41183-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 41183-2022.xlsx", "A 41183-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 41183-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 41183-2022.png", "A 41183-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 41183-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 41183-2022.docx", "A 41183-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 41183-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 41183-2022.docx", "A 41183-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 41183-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 41183-2022.docx", "A 41183-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 41183-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 41183-2022.docx", "A 41183-2022")</f>
         <v/>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,27 +1692,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 64166-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 64166-2021.xlsx", "A 64166-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 64166-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 64166-2021.png", "A 64166-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 64166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 64166-2021.docx", "A 64166-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 64166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 64166-2021.docx", "A 64166-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 64166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 64166-2021.docx", "A 64166-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 64166-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 64166-2021.docx", "A 64166-2021")</f>
         <v/>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1779,27 +1779,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 15171-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 15171-2022.xlsx", "A 15171-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 15171-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 15171-2022.png", "A 15171-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 15171-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 15171-2022.docx", "A 15171-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 15171-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 15171-2022.docx", "A 15171-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 15171-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 15171-2022.docx", "A 15171-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 15171-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 15171-2022.docx", "A 15171-2022")</f>
         <v/>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1865,27 +1865,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 35512-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 35512-2018.xlsx", "A 35512-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 35512-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 35512-2018.png", "A 35512-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 35512-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 35512-2018.docx", "A 35512-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 35512-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 35512-2018.docx", "A 35512-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 35512-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 35512-2018.docx", "A 35512-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 35512-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 35512-2018.docx", "A 35512-2018")</f>
         <v/>
       </c>
     </row>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1951,27 +1951,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 45095-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 45095-2019.xlsx", "A 45095-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 45095-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 45095-2019.png", "A 45095-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 45095-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 45095-2019.docx", "A 45095-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 45095-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 45095-2019.docx", "A 45095-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 45095-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 45095-2019.docx", "A 45095-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 45095-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 45095-2019.docx", "A 45095-2019")</f>
         <v/>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,27 +2037,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 14684-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 14684-2021.xlsx", "A 14684-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 14684-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 14684-2021.png", "A 14684-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 14684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 14684-2021.docx", "A 14684-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 14684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 14684-2021.docx", "A 14684-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 14684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 14684-2021.docx", "A 14684-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 14684-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 14684-2021.docx", "A 14684-2021")</f>
         <v/>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2123,27 +2123,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 17549-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 17549-2023.xlsx", "A 17549-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 17549-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 17549-2023.png", "A 17549-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 17549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 17549-2023.docx", "A 17549-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 17549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 17549-2023.docx", "A 17549-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 17549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 17549-2023.docx", "A 17549-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 17549-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 17549-2023.docx", "A 17549-2023")</f>
         <v/>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2208,27 +2208,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 60735-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 60735-2018.xlsx", "A 60735-2018")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 60735-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 60735-2018.png", "A 60735-2018")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 60735-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 60735-2018.docx", "A 60735-2018")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 60735-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 60735-2018.docx", "A 60735-2018")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 60735-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 60735-2018.docx", "A 60735-2018")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 60735-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 60735-2018.docx", "A 60735-2018")</f>
         <v/>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,27 +2293,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 45324-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 45324-2022.xlsx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 45324-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 45324-2022.png", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 45324-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 45324-2022.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 45324-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 45324-2022.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 45324-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 45324-2022.docx", "A 45324-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 45324-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 45324-2022.docx", "A 45324-2022")</f>
         <v/>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2383,27 +2383,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 25279-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/artfynd/A 25279-2023.xlsx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 25279-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/kartor/A 25279-2023.png", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 25279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomål/A 25279-2023.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 25279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/klagomålsmail/A 25279-2023.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 25279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsyn/A 25279-2023.docx", "A 25279-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 25279-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ARJEPLOG/tillsynsmail/A 25279-2023.docx", "A 25279-2023")</f>
         <v/>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>

--- a/Översikt ARJEPLOG.xlsx
+++ b/Översikt ARJEPLOG.xlsx
@@ -572,7 +572,7 @@
         <v>44020</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>44997</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44740</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>44490</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>43787</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         <v>44153</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         <v>44490</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>45079</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44851</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>43424</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>44825</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
         <v>44510</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>44658</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         <v>43325</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1899,7 +1899,7 @@
         <v>43707</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44280</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2071,7 +2071,7 @@
         <v>45034</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>43409</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         <v>44841</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45079</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43314</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>43314</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>43325</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>43325</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>43325</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>43337</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>43342</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>43349</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         <v>43349</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>43378</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>43381</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43391</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>43404</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>43409</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         <v>43427</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>43509</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         <v>43509</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>43509</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43542</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43542</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43549</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43549</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43579</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43600</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>43605</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43616</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>43627</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         <v>43644</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43665</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43695</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4249,7 +4249,7 @@
         <v>43699</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43699</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>43700</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>43703</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         <v>43728</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43731</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4621,7 +4621,7 @@
         <v>43760</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>43776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43797</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43803</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4921,7 +4921,7 @@
         <v>43838</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43838</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5045,7 +5045,7 @@
         <v>43892</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>43913</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>43913</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43914</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5273,7 +5273,7 @@
         <v>43914</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
         <v>43914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
         <v>43914</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5444,7 +5444,7 @@
         <v>43979</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5501,7 +5501,7 @@
         <v>44007</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>44020</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5620,7 +5620,7 @@
         <v>44026</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
         <v>44026</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         <v>44067</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44067</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5920,7 +5920,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         <v>44171</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44246</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>44246</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6158,7 +6158,7 @@
         <v>44279</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         <v>44369</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44382</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44396</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6396,7 +6396,7 @@
         <v>44417</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>44425</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44431</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>44473</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44473</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6748,7 +6748,7 @@
         <v>44475</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>44479</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         <v>44479</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         <v>44479</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         <v>44479</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         <v>44479</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         <v>44484</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7157,7 +7157,7 @@
         <v>44489</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>44520</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         <v>44537</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>44543</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         <v>44552</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>44642</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
         <v>44656</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7561,7 +7561,7 @@
         <v>44693</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>44694</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7685,7 +7685,7 @@
         <v>44701</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44701</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44732</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
         <v>44732</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44735</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7990,7 +7990,7 @@
         <v>44735</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44735</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8114,7 +8114,7 @@
         <v>44741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44741</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44823</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44830</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44833</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44840</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>44840</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8595,7 +8595,7 @@
         <v>44840</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>44851</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
         <v>44855</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44874</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44874</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44977</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44999</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45005</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45079</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45079</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45079</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45112</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>45112</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>45112</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9495,7 +9495,7 @@
         <v>45113</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
